--- a/Data/ChildTaxCreditCC.xlsx
+++ b/Data/ChildTaxCreditCC.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81AB250-2B61-3641-8C2C-74AB6D9D621B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2849E95-81BD-9846-BF58-968F6270C988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15420" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>Question</t>
   </si>
@@ -46,7 +57,16 @@
 • I'd rather not say</t>
   </si>
   <si>
-    <t>Do you know how to access the IRS portal beginning July 1, 2021?</t>
+    <t xml:space="preserve">Developed in collaboration with the Center on Budget and Policy Priorities </t>
+  </si>
+  <si>
+    <t>https://www.cbpp.org/</t>
+  </si>
+  <si>
+    <t>11, 13, 15</t>
+  </si>
+  <si>
+    <t>Do you know how to access the IRS portal beginning July 1st, 2021?</t>
   </si>
   <si>
     <t xml:space="preserve">• Yes
@@ -54,13 +74,22 @@
 </t>
   </si>
   <si>
-    <t>Do you have someone who can help you access the IRS portal beginning July 1, 2021?</t>
+    <t>18, 20, 22 (Archived)</t>
+  </si>
+  <si>
+    <t>Do you know how to access the IRS portal ?</t>
+  </si>
+  <si>
+    <t>Do you have someone who can help you access the IRS portal beginning July 1st, 2021?</t>
+  </si>
+  <si>
+    <t>Do you have someone who can help you access the IRS portal?</t>
   </si>
   <si>
     <t>Do you expect to receive the Child Tax Credit?</t>
   </si>
   <si>
-    <t>• Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years  
+    <t>• I have already received the Child Tax                                        • Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years  
 • Yes, I expect to receive it because I will sign up on the IRS portal  
 • No  
 • Unsure</t>
@@ -72,7 +101,7 @@
     <t>[Free Response]</t>
   </si>
   <si>
-    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications) </t>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                             Basic needs for the current month (by this we mean food, rent, mortgage, utilities, and telecommunications) </t>
   </si>
   <si>
     <t>• All
@@ -82,40 +111,51 @@
 • None</t>
   </si>
   <si>
-    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Unpaid bills accrued during the pandemic </t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Recreational activities (examples: vacation, summer camp) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Savings or other investments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Household items (e.g., books, computers, etc) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other (please specify) </t>
-  </si>
-  <si>
-    <t>How would receiving the $250 or $300 monthly payment for each child in your family for the next six months affect you and your family?</t>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                               Unpaid bills accrued during the pandemic (including back rent, mortgage, utilities) </t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                            Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                          Recreational activities (examples: vacation, summer camp) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                      Household items (e.g., books, computers, etc) </t>
+  </si>
+  <si>
+    <t>13, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                            Other (please specify) </t>
+  </si>
+  <si>
+    <t>How much have you received in Child Tax Credit this year?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                        Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                    Unpaid bills accrued during the pandemic (including back rent, mortgage, utilities) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                      Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                          Recreational activities (examples: vacation, summer camp) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                  Household items (e.g., books, computers, etc)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                       Other (please specify) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Better  
+• Worse  
+• About the same  </t>
   </si>
   <si>
     <t>How did you learn about the Child Tax Credit? Select all that apply.</t>
-  </si>
-  <si>
-    <t>Please select the answer that best represents your understanding of the Child Tax Credit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• The Child Tax Credit is temporary  
-• The Child Tax Credit is permanent for parents of children 17 and under  
-• The Child Tax Credit is potentially permanent for parents of children 17 and under  
-</t>
-  </si>
-  <si>
-    <t>11, 13, 15</t>
   </si>
   <si>
     <t>• A friend or family member  
@@ -127,24 +167,66 @@
 • Other, please specify: [text entry]</t>
   </si>
   <si>
-    <t>13, 15</t>
+    <t>Please select the answer that best represents your understanding of the Child Tax Credit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The Child Tax Credit is temporary  
+• The Child Tax Credit is permanent for parents of children 17 and under  
+• The Child Tax Credit is potentially permanent for parents of children 17 and under  
+</t>
+  </si>
+  <si>
+    <t>How many payments have you received so far?</t>
+  </si>
+  <si>
+    <t>How would receiving the $250 or $300 monthly payment for each child in your family for the next six months affect you and your family?</t>
+  </si>
+  <si>
+    <t>11, 13, 15, 22</t>
+  </si>
+  <si>
+    <t>Occurence in EC</t>
+  </si>
+  <si>
+    <t>69, 73</t>
+  </si>
+  <si>
+    <t>69, 71, 73</t>
+  </si>
+  <si>
+    <t>How much did you receive in each payment?</t>
+  </si>
+  <si>
+    <t>free response</t>
+  </si>
+  <si>
+    <t>69, 73, 75</t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                             Savings or other investments</t>
+  </si>
+  <si>
+    <t>73, 75</t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit?                                                    Savings for future needs of children</t>
+  </si>
+  <si>
+    <t>To what extent has the Child Tax Credit affected your financial situation and how?</t>
+  </si>
+  <si>
+    <t>Since the Child Tax Credit Checks started being sent in July, is your and your family's financial situation…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -157,8 +239,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ArialUnicodeMS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +271,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,11 +307,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -217,21 +341,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1390,23 +1554,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="24.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1422,213 +1586,513 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="153" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="153" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="242.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="242.25" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="159.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="176.25" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="102" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="102" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="153" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="153" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="153" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="102" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="170" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5" t="s">
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="102" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="76.5" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="204">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="168.75" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="168.75" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="5">
         <v>27</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="F27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="168.75" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="65.25" customHeight="1">
+      <c r="A29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" customHeight="1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="16" customHeight="1">
+      <c r="A32" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/Data/ChildTaxCreditCC.xlsx
+++ b/Data/ChildTaxCreditCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
   <si>
     <t>Question</t>
   </si>
@@ -63,7 +63,7 @@
     <t>https://www.cbpp.org/</t>
   </si>
   <si>
-    <t>11, 13, 15</t>
+    <t>11, 13, 15, 34</t>
   </si>
   <si>
     <t>Do you know how to access the IRS portal beginning July 1st, 2021?</t>
@@ -111,6 +111,9 @@
 • None</t>
   </si>
   <si>
+    <t>11, 13, 15</t>
+  </si>
+  <si>
     <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                               Unpaid bills accrued during the pandemic (including back rent, mortgage, utilities) </t>
   </si>
   <si>
@@ -120,10 +123,16 @@
     <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                          Recreational activities (examples: vacation, summer camp) </t>
   </si>
   <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                             Savings or other investments</t>
+  </si>
+  <si>
+    <t>11, 13, 15, 36</t>
+  </si>
+  <si>
     <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                      Household items (e.g., books, computers, etc) </t>
   </si>
   <si>
-    <t>13, 15</t>
+    <t>13, 15, 36</t>
   </si>
   <si>
     <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                            Other (please specify) </t>
@@ -132,6 +141,9 @@
     <t>How much have you received in Child Tax Credit this year?</t>
   </si>
   <si>
+    <t>34, 36</t>
+  </si>
+  <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                        Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications) </t>
   </si>
   <si>
@@ -144,10 +156,16 @@
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                          Recreational activities (examples: vacation, summer camp) </t>
   </si>
   <si>
+    <t>How did you use the income from the Child Tax Credit?                                                    Savings for future needs of children</t>
+  </si>
+  <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                  Household items (e.g., books, computers, etc)  </t>
   </si>
   <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                       Other (please specify) </t>
+  </si>
+  <si>
+    <t>Since the Child Tax Credit Checks started being sent in July, is your and your family's financial situation…</t>
   </si>
   <si>
     <t xml:space="preserve">• Better  
@@ -167,6 +185,9 @@
 • Other, please specify: [text entry]</t>
   </si>
   <si>
+    <t>11, 13, 15, 34, 36</t>
+  </si>
+  <si>
     <t>Please select the answer that best represents your understanding of the Child Tax Credit:</t>
   </si>
   <si>
@@ -179,43 +200,22 @@
     <t>How many payments have you received so far?</t>
   </si>
   <si>
+    <t>27, 34, 36</t>
+  </si>
+  <si>
+    <t>How much did you receive in each payment?</t>
+  </si>
+  <si>
+    <t>free response</t>
+  </si>
+  <si>
     <t>How would receiving the $250 or $300 monthly payment for each child in your family for the next six months affect you and your family?</t>
   </si>
   <si>
     <t>11, 13, 15, 22</t>
   </si>
   <si>
-    <t>Occurence in EC</t>
-  </si>
-  <si>
-    <t>69, 73</t>
-  </si>
-  <si>
-    <t>69, 71, 73</t>
-  </si>
-  <si>
-    <t>How much did you receive in each payment?</t>
-  </si>
-  <si>
-    <t>free response</t>
-  </si>
-  <si>
-    <t>69, 73, 75</t>
-  </si>
-  <si>
-    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                             Savings or other investments</t>
-  </si>
-  <si>
-    <t>73, 75</t>
-  </si>
-  <si>
-    <t>How did you use the income from the Child Tax Credit?                                                    Savings for future needs of children</t>
-  </si>
-  <si>
     <t>To what extent has the Child Tax Credit affected your financial situation and how?</t>
-  </si>
-  <si>
-    <t>Since the Child Tax Credit Checks started being sent in July, is your and your family's financial situation…</t>
   </si>
 </sst>
 </file>
@@ -308,14 +308,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -375,9 +375,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -393,6 +390,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1554,23 +1558,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1586,11 +1589,8 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="153" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" ht="153" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1606,11 +1606,8 @@
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="153" customHeight="1">
+    </row>
+    <row r="3" spans="1:5" ht="153" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1627,7 +1624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="242.25" customHeight="1">
+    <row r="4" spans="1:5" ht="242.25" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1643,11 +1640,8 @@
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="242.25" customHeight="1">
+    </row>
+    <row r="5" spans="1:5" ht="242.25" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
@@ -1664,7 +1658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="159.75" customHeight="1">
+    <row r="6" spans="1:5" ht="159.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1680,11 +1674,8 @@
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="176.25" customHeight="1">
+    </row>
+    <row r="7" spans="1:5" ht="176.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1700,11 +1691,8 @@
       <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="102" customHeight="1">
+    </row>
+    <row r="8" spans="1:5" ht="102" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1720,11 +1708,8 @@
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="102" customHeight="1">
+    </row>
+    <row r="9" spans="1:5" ht="102" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
@@ -1738,15 +1723,12 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="153" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="153" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -1758,15 +1740,12 @@
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="153" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="153" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -1778,15 +1757,12 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="153" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="153" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -1798,15 +1774,12 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="102" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="102" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
@@ -1818,15 +1791,12 @@
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="170" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="170.1" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -1838,15 +1808,12 @@
         <v>8</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="102" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="102" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>21</v>
@@ -1858,144 +1825,132 @@
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="76.5" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="76.5" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="76.5" customHeight="1">
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="76.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="76.5" customHeight="1">
+      <c r="E17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="76.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="76.5" customHeight="1">
+      <c r="E18" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="76.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="76.5" customHeight="1">
+      <c r="E19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="76.5" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="76.5" customHeight="1">
+      <c r="E20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="76.5" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="76.5" customHeight="1">
+      <c r="E21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="76.5" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="76.5" customHeight="1">
+      <c r="E22" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="76.5" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="76.5" customHeight="1">
+      <c r="E23" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="76.5" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="204">
+      <c r="E24" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="189">
       <c r="A25" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>7</v>
@@ -2004,18 +1959,15 @@
         <v>8</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="168.75" customHeight="1">
+      <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="168.75" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>7</v>
@@ -2024,72 +1976,73 @@
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="168.75" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="168.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="5">
-        <v>27</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="168.75" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="168.75" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="65.25" customHeight="1">
-      <c r="A29" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="21" t="s">
+      <c r="E28" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="65.25" customHeight="1">
+      <c r="A29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="E29" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" customHeight="1">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="16" customHeight="1">
+    <row r="30" spans="1:5" ht="31.5">
+      <c r="A30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.95" customHeight="1">
       <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.95" customHeight="1">
+      <c r="A33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data/ChildTaxCreditCC.xlsx
+++ b/Data/ChildTaxCreditCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
   <si>
     <t>Question</t>
   </si>
@@ -63,7 +63,7 @@
     <t>https://www.cbpp.org/</t>
   </si>
   <si>
-    <t>11, 13, 15, 34</t>
+    <t>11, 13, 15, 34, 38, 40</t>
   </si>
   <si>
     <t>Do you know how to access the IRS portal beginning July 1st, 2021?</t>
@@ -147,6 +147,9 @@
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                        Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications) </t>
   </si>
   <si>
+    <t>34, 36, 38, 40</t>
+  </si>
+  <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                    Unpaid bills accrued during the pandemic (including back rent, mortgage, utilities) </t>
   </si>
   <si>
@@ -160,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                  Household items (e.g., books, computers, etc)  </t>
+  </si>
+  <si>
+    <t>How did you use the income from the Child Tax Credit?                                                                  Child Care</t>
+  </si>
+  <si>
+    <t>38, 40</t>
   </si>
   <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                       Other (please specify) </t>
@@ -185,7 +194,7 @@
 • Other, please specify: [text entry]</t>
   </si>
   <si>
-    <t>11, 13, 15, 34, 36</t>
+    <t>11, 13, 15, 34, 36, 38, 40</t>
   </si>
   <si>
     <t>Please select the answer that best represents your understanding of the Child Tax Credit:</t>
@@ -197,10 +206,13 @@
 </t>
   </si>
   <si>
+    <t>11, 13, 15, 34, 36, 38</t>
+  </si>
+  <si>
     <t>How many payments have you received so far?</t>
   </si>
   <si>
-    <t>27, 34, 36</t>
+    <t>27, 34, 36, 38, 40</t>
   </si>
   <si>
     <t>How much did you receive in each payment?</t>
@@ -216,6 +228,9 @@
   </si>
   <si>
     <t>To what extent has the Child Tax Credit affected your financial situation and how?</t>
+  </si>
+  <si>
+    <t>How many children are your Child Tax Payments based on?</t>
   </si>
 </sst>
 </file>
@@ -390,13 +405,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1558,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1851,12 +1866,12 @@
       <c r="C17" s="11"/>
       <c r="D17" s="13"/>
       <c r="E17" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="76.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>21</v>
@@ -1864,12 +1879,12 @@
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
       <c r="E18" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="76.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>21</v>
@@ -1877,12 +1892,12 @@
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="76.5" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>21</v>
@@ -1890,12 +1905,12 @@
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
       <c r="E20" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="76.5" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
@@ -1903,12 +1918,12 @@
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="76.5" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -1916,12 +1931,12 @@
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
       <c r="E22" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="76.5" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
@@ -1929,44 +1944,40 @@
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="76.5" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="189">
-      <c r="A25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="76.5" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="168.75" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="189">
       <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -1976,73 +1987,100 @@
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="168.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E27" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="168.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="13"/>
       <c r="E28" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="168.75" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="65.25" customHeight="1">
+      <c r="A30" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D30" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.5">
-      <c r="A30" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="26" t="s">
+      <c r="E30" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="31.5">
+      <c r="A31" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A32" s="2"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.5">
+      <c r="A32" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25">
+        <v>38</v>
+      </c>
     </row>
     <row r="33" spans="1:1" ht="15.95" customHeight="1">
       <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.95" customHeight="1">
+      <c r="A34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data/ChildTaxCreditCC.xlsx
+++ b/Data/ChildTaxCreditCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
   <si>
     <t>Question</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Did your household file federal income taxes in the last two years?</t>
@@ -63,7 +63,29 @@
     <t>https://www.cbpp.org/</t>
   </si>
   <si>
-    <t>11, 13, 15, 34, 38, 40</t>
+    <t xml:space="preserve"> 05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
+  </si>
+  <si>
+    <t>Do you plan to file your federal income taxes in 2022?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
+• No 
+• Unsure  
+• I'd rather not say
+</t>
+  </si>
+  <si>
+    <t>01/11/2021-01/22/2021</t>
+  </si>
+  <si>
+    <t>Did you receive the monthly Child Tax Credit payments in 2021?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes
+• No 
+• No, I did not expect to receive them 
+</t>
   </si>
   <si>
     <t>Do you know how to access the IRS portal beginning July 1st, 2021?</t>
@@ -74,16 +96,25 @@
 </t>
   </si>
   <si>
-    <t>18, 20, 22 (Archived)</t>
+    <t xml:space="preserve"> 06/22/2021-06/25/2021 07/06/2021-07/08/2021 07/20/2021-07/22/2021 (Archived) </t>
   </si>
   <si>
     <t>Do you know how to access the IRS portal ?</t>
   </si>
   <si>
+    <t xml:space="preserve"> 05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 </t>
+  </si>
+  <si>
     <t>Do you have someone who can help you access the IRS portal beginning July 1st, 2021?</t>
   </si>
   <si>
+    <t xml:space="preserve">06/22/2021-06/25/2021 07/06/2021-07/08/2021 07/20/2021-07/22/2021 (Archived) </t>
+  </si>
+  <si>
     <t>Do you have someone who can help you access the IRS portal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 </t>
   </si>
   <si>
     <t>Do you expect to receive the Child Tax Credit?</t>
@@ -111,7 +142,7 @@
 • None</t>
   </si>
   <si>
-    <t>11, 13, 15</t>
+    <t xml:space="preserve">05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021 </t>
   </si>
   <si>
     <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                               Unpaid bills accrued during the pandemic (including back rent, mortgage, utilities) </t>
@@ -126,28 +157,31 @@
     <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                             Savings or other investments</t>
   </si>
   <si>
-    <t>11, 13, 15, 36</t>
+    <t xml:space="preserve">05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021 10/26/2021-11/01/2021 </t>
   </si>
   <si>
     <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                      Household items (e.g., books, computers, etc) </t>
   </si>
   <si>
-    <t>13, 15, 36</t>
+    <t xml:space="preserve">05/14/2021-05/28/2021 06/02/2021-06/07/2021 10/26/2021-11/01/2021 </t>
   </si>
   <si>
     <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                            Other (please specify) </t>
   </si>
   <si>
+    <t xml:space="preserve"> 05/14/2021-05/28/2021 06/02/2021-06/07/2021 10/26/2021-11/01/2021 </t>
+  </si>
+  <si>
     <t>How much have you received in Child Tax Credit this year?</t>
   </si>
   <si>
-    <t>34, 36</t>
+    <t xml:space="preserve">10/13/2021-10/17/2021 10/26/2021-11/01/2021 </t>
   </si>
   <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                        Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications) </t>
   </si>
   <si>
-    <t>34, 36, 38, 40</t>
+    <t xml:space="preserve">10/13/2021-10/17/2021 10/26/2021-11/01/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 </t>
   </si>
   <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                    Unpaid bills accrued during the pandemic (including back rent, mortgage, utilities) </t>
@@ -168,10 +202,13 @@
     <t>How did you use the income from the Child Tax Credit?                                                                  Child Care</t>
   </si>
   <si>
-    <t>38, 40</t>
+    <t xml:space="preserve">11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 </t>
   </si>
   <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                       Other (please specify) </t>
+  </si>
+  <si>
+    <t>10/13/2021-10/17/2021 10/26/2021-11/01/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
   </si>
   <si>
     <t>Since the Child Tax Credit Checks started being sent in July, is your and your family's financial situation…</t>
@@ -194,7 +231,7 @@
 • Other, please specify: [text entry]</t>
   </si>
   <si>
-    <t>11, 13, 15, 34, 36, 38, 40</t>
+    <t xml:space="preserve">05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 </t>
   </si>
   <si>
     <t>Please select the answer that best represents your understanding of the Child Tax Credit:</t>
@@ -206,31 +243,47 @@
 </t>
   </si>
   <si>
-    <t>11, 13, 15, 34, 36, 38</t>
-  </si>
-  <si>
     <t>How many payments have you received so far?</t>
   </si>
   <si>
-    <t>27, 34, 36, 38, 40</t>
+    <t xml:space="preserve"> 08/02/2021-08/26/2021 10/13/2021-10/17/2021 10/26/2021-11/01/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
   </si>
   <si>
     <t>How much did you receive in each payment?</t>
   </si>
   <si>
-    <t>free response</t>
+    <t>[Free response]</t>
   </si>
   <si>
     <t>How would receiving the $250 or $300 monthly payment for each child in your family for the next six months affect you and your family?</t>
   </si>
   <si>
-    <t>11, 13, 15, 22</t>
+    <t xml:space="preserve">05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021 07/20/2021-07/22/2021 </t>
   </si>
   <si>
     <t>To what extent has the Child Tax Credit affected your financial situation and how?</t>
   </si>
   <si>
+    <t xml:space="preserve">10/13/2021-10/17/2021 10/26/2021-11/01/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 </t>
+  </si>
+  <si>
     <t>How many children are your Child Tax Payments based on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/10/2021-11/15/2021 01/11/2021-01/22/2021 </t>
+  </si>
+  <si>
+    <t>Are you aware that, unless Congress decides to continue the increase in the Child Tax Credit, the last monthly payment was sent to families in December 2021?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
+• No </t>
+  </si>
+  <si>
+    <t>Are you aware that families should file taxes this year (2022) to get the remainder of their increased 2021 Child Tax Credit?</t>
+  </si>
+  <si>
+    <t>How would it impact your family’s financial situation if Congress does not decide to continue the monthly Child Tax Credit payments?</t>
   </si>
 </sst>
 </file>
@@ -338,12 +391,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -410,7 +460,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1589,498 +1645,557 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="153" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="153" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="153" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="153" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="242.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="242.25" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="159.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="176.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="110.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="102" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="153" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="153" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="153" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="102" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="170.1" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="102" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="76.5" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="94.5">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="94.5">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="94.5">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="94.5">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="94.5">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="94.5">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="76.5" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="94.5">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="94.5">
+      <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="189">
+      <c r="A28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="168.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="168.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="168.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="65.25" customHeight="1">
+      <c r="A32" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="78.75">
+      <c r="A33" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="31.5">
+      <c r="A34" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="63">
+      <c r="A35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="242.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="242.25" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8" t="s">
+    <row r="36" spans="1:5" ht="47.25">
+      <c r="A36" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="159.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="176.25" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="102" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="102" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="153" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="153" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="153" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
+    <row r="37" spans="1:5" ht="63">
+      <c r="A37" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="170.1" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="102" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24">
         <v>44</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="189">
-      <c r="A26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="168.75" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="168.75" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="168.75" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A30" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="31.5">
-      <c r="A31" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="31.5">
-      <c r="A32" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.95" customHeight="1">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.95" customHeight="1">
-      <c r="A34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data/ChildTaxCreditCC.xlsx
+++ b/Data/ChildTaxCreditCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
   <si>
     <t>Question</t>
   </si>
@@ -63,7 +63,7 @@
     <t>https://www.cbpp.org/</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
+    <t xml:space="preserve"> 05/02/2021-05/13/2021 05/14/2021-05/28/2021 06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 46, 48</t>
   </si>
   <si>
     <t>Do you plan to file your federal income taxes in 2022?</t>
@@ -76,7 +76,22 @@
 </t>
   </si>
   <si>
-    <t>01/11/2021-01/22/2021</t>
+    <t>01/11/2021-01/22/2021 01/31/2022-02/07/2022 46, 48</t>
+  </si>
+  <si>
+    <t>Do you need support filing your 2021 taxes this year?</t>
+  </si>
+  <si>
+    <t>Do you know of free tax filing services (ex. VITA, the Volunteer Income Tax Assistance Program)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
+• No 
+• N/A
+</t>
+  </si>
+  <si>
+    <t>Did you or will you use a free tax filing service this year?</t>
   </si>
   <si>
     <t>Did you receive the monthly Child Tax Credit payments in 2021?</t>
@@ -88,6 +103,15 @@
 </t>
   </si>
   <si>
+    <t>How many monthly payments did you receive between July-December 2021?</t>
+  </si>
+  <si>
+    <t>[Free Response]</t>
+  </si>
+  <si>
+    <t>01/31/2022-02/07/2022 46, 48</t>
+  </si>
+  <si>
     <t>Do you know how to access the IRS portal beginning July 1st, 2021?</t>
   </si>
   <si>
@@ -127,9 +151,6 @@
   </si>
   <si>
     <t>If no, why don't you expect to receive it?</t>
-  </si>
-  <si>
-    <t>[Free Response]</t>
   </si>
   <si>
     <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit?                             Basic needs for the current month (by this we mean food, rent, mortgage, utilities, and telecommunications) </t>
@@ -181,7 +202,7 @@
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                        Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications) </t>
   </si>
   <si>
-    <t xml:space="preserve">10/13/2021-10/17/2021 10/26/2021-11/01/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 </t>
+    <t>10/13/2021-10/17/2021 10/26/2021-11/01/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 46, 48</t>
   </si>
   <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                    Unpaid bills accrued during the pandemic (including back rent, mortgage, utilities) </t>
@@ -202,13 +223,10 @@
     <t>How did you use the income from the Child Tax Credit?                                                                  Child Care</t>
   </si>
   <si>
-    <t xml:space="preserve">11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 </t>
+    <t>11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 46, 48</t>
   </si>
   <si>
     <t xml:space="preserve">How did you use the income from the Child Tax Credit?                                                       Other (please specify) </t>
-  </si>
-  <si>
-    <t>10/13/2021-10/17/2021 10/26/2021-11/01/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
   </si>
   <si>
     <t>Since the Child Tax Credit Checks started being sent in July, is your and your family's financial situation…</t>
@@ -217,6 +235,9 @@
     <t xml:space="preserve">• Better  
 • Worse  
 • About the same  </t>
+  </si>
+  <si>
+    <t>Has your household been affected by not receiving the monthly Child Tax Credit payments in January, February and March? If so, how?</t>
   </si>
   <si>
     <t>How did you learn about the Child Tax Credit? Select all that apply.</t>
@@ -249,7 +270,7 @@
     <t xml:space="preserve"> 08/02/2021-08/26/2021 10/13/2021-10/17/2021 10/26/2021-11/01/2021 11/10/2021-11/15/2021 11/19/2021-11/23/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
   </si>
   <si>
-    <t>How much did you receive in each payment?</t>
+    <t>How much did you receive in each monthly payment?</t>
   </si>
   <si>
     <t>[Free response]</t>
@@ -270,7 +291,7 @@
     <t>How many children are your Child Tax Payments based on?</t>
   </si>
   <si>
-    <t xml:space="preserve">11/10/2021-11/15/2021 01/11/2021-01/22/2021 </t>
+    <t>11/10/2021-11/15/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022 46, 48</t>
   </si>
   <si>
     <t>Are you aware that, unless Congress decides to continue the increase in the Child Tax Credit, the last monthly payment was sent to families in December 2021?</t>
@@ -284,6 +305,19 @@
   </si>
   <si>
     <t>How would it impact your family’s financial situation if Congress does not decide to continue the monthly Child Tax Credit payments?</t>
+  </si>
+  <si>
+    <t>01/11/2021-01/22/2021 01/31/2022-02/07/2022 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before the monthly payments began in July 2021, households with children received their Child Tax Credit in one lump sum when they filed their taxes. 
+How would you prefer to receive your Child Tax Credit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• A monthly payment 
+• A lump sum one time per year 
+</t>
   </si>
 </sst>
 </file>
@@ -400,17 +434,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -452,9 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -465,8 +490,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1629,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1661,540 +1695,618 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1">
+    <row r="2" spans="1:5" ht="173.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="153" customHeight="1">
+    <row r="3" spans="1:5" ht="78.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="153" customHeight="1">
+    <row r="4" spans="1:5" ht="78.75">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="78.75">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="153" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="8" spans="1:5" ht="31.5">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="78.75">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="242.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="242.25" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="159.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="126">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="176.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="110.25">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="63">
+      <c r="A11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="110.25">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="153" customHeight="1">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:5" ht="173.25">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="153" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="153" customHeight="1">
+    <row r="14" spans="1:5" ht="110.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="102" customHeight="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5" ht="94.5">
+      <c r="A15" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="78.75">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="170.1" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="102" customHeight="1">
+    </row>
+    <row r="17" spans="1:5" ht="94.5">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="78.75">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="78.75">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="94.5">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:5" ht="78.75">
+      <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="94.5">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:5" ht="78.75">
+      <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="94.5">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="94.5">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="31.5">
+      <c r="A22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="94.5">
+      <c r="B22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="126">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="94.5">
+        <v>35</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="126">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="76.5" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="126">
       <c r="A25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="94.5">
+    </row>
+    <row r="26" spans="1:5" ht="126">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="94.5">
+        <v>35</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="126">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="126">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="189">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="94.5">
+      <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="10" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="126">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="126">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="63">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="189">
+      <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="168.75" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="E33" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="157.5">
+      <c r="A34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="168.75" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="168.75" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A32" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="E34" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="126">
+      <c r="A35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="126">
+      <c r="A36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="63">
+      <c r="A37" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D37" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="78.75">
-      <c r="A33" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="31.5">
-      <c r="A34" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="63">
-      <c r="A35" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="26" t="s">
+      <c r="E37" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="78.75">
+      <c r="A38" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="63">
+      <c r="A39" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="63">
+      <c r="A40" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="47.25">
-      <c r="A36" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24" t="s">
+    <row r="41" spans="1:5" ht="47.25">
+      <c r="A41" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="63">
-      <c r="A37" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24">
-        <v>44</v>
+    <row r="42" spans="1:5" ht="63">
+      <c r="A42" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="126">
+      <c r="A43" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
